--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,36 +23,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Find</t>
   </si>
   <si>
-    <t xml:space="preserve">Find_In</t>
-  </si>
-  <si>
     <t xml:space="preserve">Replace</t>
   </si>
   <si>
     <t xml:space="preserve">Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">// downscroll code find</t>
-  </si>
-  <si>
     <t xml:space="preserve">// downscroll code</t>
   </si>
   <si>
     <t xml:space="preserve">/* downscroll code */</t>
   </si>
   <si>
-    <t xml:space="preserve">var theme in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theme;</t>
+    <t xml:space="preserve">var theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var theme;</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -179,16 +170,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="63.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,30 +192,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -245,42 +227,42 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">/* downscroll code */</t>
   </si>
   <si>
-    <t xml:space="preserve">var theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">var theme;</t>
+    <t xml:space="preserve">// comment can’t minify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/* comment minify */</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +92,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +154,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,7 +183,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.42"/>
   </cols>
   <sheetData>
@@ -202,7 +207,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">

--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -34,10 +34,35 @@
     <t xml:space="preserve">Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">// downscroll code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/* downscroll code */</t>
+    <t xml:space="preserve">// command 2 trailing slashes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> command 2 trailing slashes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> */</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">// comment can’t minify</t>
@@ -154,7 +179,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,7 +203,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>

--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -8,10 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name=".css" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name=".js" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name=".liquid" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Find" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Replace" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Condition" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,36 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Find</t>
   </si>
   <si>
-    <t xml:space="preserve">Replace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// command 2 trailing slashes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/* </t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> command 2 trailing slashes</t>
+      <t xml:space="preserve">xreplace</t>
     </r>
     <r>
       <rPr>
@@ -61,32 +42,33 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> */</t>
+      <t xml:space="preserve"> text 1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">// comment can’t minify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/* comment minify */</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">Replace</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">xreplace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> text 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition</t>
   </si>
 </sst>
 </file>
@@ -166,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,12 +157,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,101 +178,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="145.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -307,6 +244,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="145.89"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -315,34 +328,20 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="162.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Find" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Replace" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Condition" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Xreplace" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Yreplace" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,53 +21,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Find</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xreplace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> text 1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Replace</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xreplace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> text 2</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text 1 find</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text 1 replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text 2 find</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text 2 replace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findsdfsdf 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findsdfxxcd 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findsdfxxcd 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacedfsdxs 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replacesdfsdx 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findsdfxxsscd 3</t>
   </si>
 </sst>
 </file>
@@ -148,17 +139,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -180,31 +187,43 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="145.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -251,27 +270,35 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="145.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -297,6 +324,11 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
     </row>
@@ -308,38 +340,6 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="162.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/xreplace.xlsx
+++ b/xreplace.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Xreplace" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Yreplace" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="File" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Find</t>
   </si>
@@ -60,6 +61,33 @@
   </si>
   <si>
     <t xml:space="preserve">Findsdfxxsscd 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.liquid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.phtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.xml</t>
   </si>
 </sst>
 </file>
@@ -69,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,11 +118,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -156,18 +179,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +199,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -218,10 +229,10 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -270,15 +281,15 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,7 +299,7 @@
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -299,12 +310,9 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -325,7 +333,7 @@
       <c r="A9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -340,6 +348,78 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.38"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
